--- a/rides.xlsx
+++ b/rides.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t xml:space="preserve">dtime</t>
   </si>
@@ -305,6 +305,42 @@
   </si>
   <si>
     <t xml:space="preserve">1:12:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-13 05:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAF 3065 rest (Innsbruckring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:30:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-15 06:39:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAF 8070 (Greatest London Loop)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:21:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-17 05:39:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAF 8070 (Road to Ruins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:34:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-19 08:44:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAF 8070 (Kickerbocker)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:21:50</t>
   </si>
 </sst>
 </file>
@@ -430,13 +466,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.24"/>
@@ -2047,6 +2083,298 @@
         <v>68</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">G25-G24</f>
+        <v>85</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>3751</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">I25-I24</f>
+        <v>128</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>6193</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">K25-K24</f>
+        <v>508</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>17535</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">M25-M24</f>
+        <v>8428</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>420750</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <f aca="false">TIMEVALUE(P25)*(24*60)</f>
+        <v>30.8</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">G26-G25</f>
+        <v>322</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>4073</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">I26-I25</f>
+        <v>455</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>6648</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">K26-K25</f>
+        <v>1465</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">M26-M25</f>
+        <v>24218</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>444968</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <f aca="false">TIMEVALUE(P26)*(24*60)</f>
+        <v>81.4666666666667</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">G27-G26</f>
+        <v>275</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>4348</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">I27-I26</f>
+        <v>540</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>7188</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">K27-K26</f>
+        <v>1612</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>20612</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">M27-M26</f>
+        <v>24197</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>469165</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <f aca="false">TIMEVALUE(P27)*(24*60)</f>
+        <v>94.35</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>482</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">G28-G27</f>
+        <v>408</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>4756</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">I28-I27</f>
+        <v>446</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>7634</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">K28-K27</f>
+        <v>1364</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>21976</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">M28-M27</f>
+        <v>24267</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>493432</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <f aca="false">TIMEVALUE(P28)*(24*60)</f>
+        <v>81.8333333333333</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rides.xlsx
+++ b/rides.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t xml:space="preserve">dtime</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t xml:space="preserve">1:21:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-19 17:34:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy ENVE SES 3.4 wheel</t>
   </si>
 </sst>
 </file>
@@ -466,13 +472,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.24"/>
@@ -2375,6 +2381,24 @@
         <v>63</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>-191700</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <f aca="false">M28+L29</f>
+        <v>301732</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rides.xlsx
+++ b/rides.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t xml:space="preserve">dtime</t>
   </si>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">2020-06-02 09:09:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF M6065 (Richmond 2015 UCI)</t>
+    <t xml:space="preserve">M6065 (Richmond 2015 UCI)</t>
   </si>
   <si>
     <t xml:space="preserve">01:01:07</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">2020-06-06 06:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF M6070 (Volcano Loop 5)</t>
+    <t xml:space="preserve">M6070 (Volcano Loop 5)</t>
   </si>
   <si>
     <t xml:space="preserve">1:01:10</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">2020-06-08 06:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF 7070 (Volcano Climb)</t>
+    <t xml:space="preserve">M7070 (Volcano Climb)</t>
   </si>
   <si>
     <t xml:space="preserve">1:10:49</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">2020-06-10 06:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF 7570 (Knickerbocker Reverse)</t>
+    <t xml:space="preserve">M7570 (Knickerbocker Reverse)</t>
   </si>
   <si>
     <t xml:space="preserve">1:20:14</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">2020-06-12 06:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF 7070 (Greater London Loop)</t>
+    <t xml:space="preserve">M7070 (Greater London Loop)</t>
   </si>
   <si>
     <t xml:space="preserve">1:12:44</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">2020-06-13 05:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF 3065 rest (Innsbruckring)</t>
+    <t xml:space="preserve">M3065 rest (Innsbruckring)</t>
   </si>
   <si>
     <t xml:space="preserve">0:30:48</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">2020-06-15 06:39:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF 8070 (Greatest London Loop)</t>
+    <t xml:space="preserve">M8070 (Greatest London Loop)</t>
   </si>
   <si>
     <t xml:space="preserve">1:21:28</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">2020-06-17 05:39:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF 8070 (Road to Ruins)</t>
+    <t xml:space="preserve">M8070 (Road to Ruins)</t>
   </si>
   <si>
     <t xml:space="preserve">1:34:21</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">2020-06-19 08:44:00</t>
   </si>
   <si>
-    <t xml:space="preserve">MAF 8070 (Kickerbocker)</t>
+    <t xml:space="preserve">M8070 (Kickerbocker)</t>
   </si>
   <si>
     <t xml:space="preserve">1:21:50</t>
@@ -347,6 +347,60 @@
   </si>
   <si>
     <t xml:space="preserve">Buy ENVE SES 3.4 wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-20 07:34:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M150 (Failed Volcano Loop 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:10:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-22 07:34:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9075 (Figure 8 Reverse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:33:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-24 07:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9075 (Royal Pump Room 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:40:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-26 05:40:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9075 (Figure 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:34:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-27 06:39:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M150 (Volcano Loop 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:09:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-27 09:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Tarmac Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
 </sst>
 </file>
@@ -472,13 +526,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
+      <selection pane="topLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.24"/>
@@ -486,13 +540,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.31"/>
@@ -2391,12 +2442,465 @@
       <c r="C29" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>4756</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">I29-I28</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>7634</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">K29-K28</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>21976</v>
+      </c>
       <c r="L29" s="0" t="n">
         <v>-191700</v>
       </c>
       <c r="M29" s="0" t="n">
         <f aca="false">M28+L29</f>
         <v>301732</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>482</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">G30-G29</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>4756</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">I30-I29</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>7634</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">K30-K29</f>
+        <v>1493</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>23469</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">M30-M29</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <f aca="false">M29</f>
+        <v>301732</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <f aca="false">TIMEVALUE(P30)*(24*60)</f>
+        <v>130.316666666667</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>5096</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">I31-I30</f>
+        <v>534</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>8168</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">K31-K30</f>
+        <v>1676</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>25145</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">M31-M30</f>
+        <v>27438</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>329170</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <f aca="false">TIMEVALUE(P31)*(24*60)</f>
+        <v>93.9166666666667</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>549</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>5642</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">I32-I31</f>
+        <v>553</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>8721</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">K32-K31</f>
+        <v>1680</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>26825</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">M32-M31</f>
+        <v>29861</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>359031</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <f aca="false">TIMEVALUE(P32)*(24*60)</f>
+        <v>100.25</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>587</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">G33-G32</f>
+        <v>302</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>5944</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">I33-I32</f>
+        <v>550</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>9271</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">K33-K32</f>
+        <v>1726</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>28551</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">M33-M32</f>
+        <v>28717</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>387748</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <f aca="false">TIMEVALUE(P33)*(24*60)</f>
+        <v>94.5666666666667</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>642</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">G34-G33</f>
+        <v>273</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>6217</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">I34-I33</f>
+        <v>721</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>9992</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">K34-K33</f>
+        <v>2396</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>30947</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">M34-M33</f>
+        <v>38537</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>426285</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <f aca="false">TIMEVALUE(P34)*(24*60)</f>
+        <v>129.916666666667</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>642</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">G35-G34</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>6217</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">I35-I34</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>9992</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">K35-K34</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>30947</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>-408300</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <f aca="false">M34+L35</f>
+        <v>17985</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/rides.xlsx
+++ b/rides.xlsx
@@ -8,19 +8,19 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="rides" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t xml:space="preserve">dtime</t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">avg_rpm</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-17 06:30:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Correction</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t xml:space="preserve">00:24:07</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-18 16:25:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fondo welcome workout</t>
   </si>
   <si>
@@ -112,72 +106,48 @@
     <t xml:space="preserve">00:52:20</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-19 07:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fondo - Introductory interval</t>
   </si>
   <si>
     <t xml:space="preserve">00:54:40</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-21 07:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fondo - The Long Ride</t>
   </si>
   <si>
     <t xml:space="preserve">01:04:59</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-22 07:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">FTP Builder Week 1</t>
   </si>
   <si>
     <t xml:space="preserve">00:42:49</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-24 07:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fondo - Long tempo</t>
   </si>
   <si>
     <t xml:space="preserve">00:48:55</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-26 07:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fondo - Make A Break For It</t>
   </si>
   <si>
     <t xml:space="preserve">00:49:41</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-27 07:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Workout</t>
   </si>
   <si>
     <t xml:space="preserve">00:32:31</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-28 09:46:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fondo - Long Ride</t>
   </si>
   <si>
     <t xml:space="preserve">01:47:26</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-28 17:20:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recov interval</t>
   </si>
   <si>
@@ -187,9 +157,6 @@
     <t xml:space="preserve">00:20:52</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-29 06:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Fan Flats</t>
   </si>
   <si>
@@ -199,202 +166,133 @@
     <t xml:space="preserve">00:27:25</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-29 06:30:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">The 6 Train</t>
   </si>
   <si>
     <t xml:space="preserve">00:26:39</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-30 06:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Workout (40%)</t>
   </si>
   <si>
     <t xml:space="preserve">00:13:58</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-30 06:28:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Workout (40-75%)</t>
   </si>
   <si>
     <t xml:space="preserve">00:18:57</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-30 07:01:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Workout (75%)</t>
   </si>
   <si>
     <t xml:space="preserve">0:43:23</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-30 07:56:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cobbleclimb (Richmond)</t>
   </si>
   <si>
     <t xml:space="preserve">0:26:01</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-31 08:24:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Z1 40% Recovery (London Classique)</t>
   </si>
   <si>
     <t xml:space="preserve">00:36:00</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-01 09:09:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAF Day 1 (Greater London Flat &amp; Watopia)</t>
   </si>
   <si>
     <t xml:space="preserve">01:32:25</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-02 09:09:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M6065 (Richmond 2015 UCI)</t>
   </si>
   <si>
     <t xml:space="preserve">01:01:07</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-06 06:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M6070 (Volcano Loop 5)</t>
   </si>
   <si>
     <t xml:space="preserve">1:01:10</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-08 06:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M7070 (Volcano Climb)</t>
   </si>
   <si>
     <t xml:space="preserve">1:10:49</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-10 06:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M7570 (Knickerbocker Reverse)</t>
   </si>
   <si>
     <t xml:space="preserve">1:20:14</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-12 06:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M7070 (Greater London Loop)</t>
   </si>
   <si>
     <t xml:space="preserve">1:12:44</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-13 05:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M3065 rest (Innsbruckring)</t>
   </si>
   <si>
     <t xml:space="preserve">0:30:48</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-15 06:39:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M8070 (Greatest London Loop)</t>
   </si>
   <si>
     <t xml:space="preserve">1:21:28</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-17 05:39:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M8070 (Road to Ruins)</t>
   </si>
   <si>
     <t xml:space="preserve">1:34:21</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-19 08:44:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M8070 (Kickerbocker)</t>
   </si>
   <si>
     <t xml:space="preserve">1:21:50</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-19 17:34:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buy ENVE SES 3.4 wheel</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-20 07:34:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M150 (Failed Volcano Loop 10)</t>
   </si>
   <si>
     <t xml:space="preserve">02:10:19</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-22 07:34:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M9075 (Figure 8 Reverse)</t>
   </si>
   <si>
     <t xml:space="preserve">1:33:55</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-24 07:10:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M9075 (Royal Pump Room 8)</t>
   </si>
   <si>
     <t xml:space="preserve">1:40:15</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-26 05:40:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M9075 (Figure 8)</t>
   </si>
   <si>
     <t xml:space="preserve">1:34:34</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-27 06:39:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">M150 (Volcano Loop 10)</t>
   </si>
   <si>
     <t xml:space="preserve">2:09:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-27 09:10:00</t>
   </si>
   <si>
     <t xml:space="preserve">Buy Tarmac Pro</t>
@@ -407,18 +305,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -437,6 +332,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,12 +348,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -480,32 +389,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,112 +419,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>43968.2708333333</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="0" t="n">
         <v>17.4</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <f aca="false">D2</f>
+      <c r="E2" s="0" t="n">
         <v>17.4</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -664,29 +545,27 @@
       <c r="O2" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>24.1166666666667</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>43969.6840277778</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="3" t="n">
-        <f aca="false">TIMEVALUE(P2)*(24*60)</f>
-        <v>24.1166666666667</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="0" t="n">
         <v>16.4</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <f aca="false">D3+E2</f>
+      <c r="E3" s="0" t="n">
         <v>33.8</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -719,11 +598,10 @@
       <c r="O3" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <f aca="false">TIMEVALUE(P3)*(24*60)</f>
+      <c r="P3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="0" t="n">
         <v>52.3333333333333</v>
       </c>
       <c r="R3" s="0" t="n">
@@ -736,21 +614,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>43970.2916666667</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>15.8</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <f aca="false">D4+E3</f>
+      <c r="E4" s="0" t="n">
         <v>49.6</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -783,11 +660,10 @@
       <c r="O4" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <f aca="false">TIMEVALUE(P4)*(24*60)</f>
+      <c r="P4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="0" t="n">
         <v>54.6666666666667</v>
       </c>
       <c r="R4" s="0" t="n">
@@ -803,21 +679,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>43972.2916666667</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <f aca="false">D5+E4</f>
+      <c r="E5" s="0" t="n">
         <v>74.6</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -850,11 +725,10 @@
       <c r="O5" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <f aca="false">TIMEVALUE(P5)*(24*60)</f>
+      <c r="P5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>64.9833333333333</v>
       </c>
       <c r="R5" s="0" t="n">
@@ -870,21 +744,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>43973.2916666667</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>13.8</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <f aca="false">D6+E5</f>
+      <c r="E6" s="0" t="n">
         <v>88.4</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -917,11 +790,10 @@
       <c r="O6" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <f aca="false">TIMEVALUE(P6)*(24*60)</f>
+      <c r="P6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="0" t="n">
         <v>42.8166666666667</v>
       </c>
       <c r="R6" s="0" t="n">
@@ -937,21 +809,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>43975.2916666667</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>16.6</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <f aca="false">D7+E6</f>
+      <c r="E7" s="0" t="n">
         <v>105</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -984,11 +855,10 @@
       <c r="O7" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <f aca="false">TIMEVALUE(P7)*(24*60)</f>
+      <c r="P7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="0" t="n">
         <v>48.9166666666667</v>
       </c>
       <c r="R7" s="0" t="n">
@@ -1004,21 +874,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>43977.2916666667</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>9.4</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <f aca="false">D8+E7</f>
+      <c r="E8" s="0" t="n">
         <v>114.4</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -1051,11 +920,10 @@
       <c r="O8" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <f aca="false">TIMEVALUE(P8)*(24*60)</f>
+      <c r="P8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="0" t="n">
         <v>49.6833333333333</v>
       </c>
       <c r="R8" s="0" t="n">
@@ -1071,21 +939,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>45</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>43978.2916666667</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>11.3</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <f aca="false">D9+E8</f>
+      <c r="E9" s="0" t="n">
         <v>125.7</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -1118,11 +985,10 @@
       <c r="O9" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <f aca="false">TIMEVALUE(P9)*(24*60)</f>
+      <c r="P9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="0" t="n">
         <v>32.5166666666667</v>
       </c>
       <c r="R9" s="0" t="n">
@@ -1138,21 +1004,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>43979.4069444444</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>30.8</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <f aca="false">D10+E9</f>
+      <c r="E10" s="0" t="n">
         <v>156.5</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -1185,32 +1050,30 @@
       <c r="O10" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <f aca="false">TIMEVALUE(P10)*(24*60)</f>
+      <c r="P10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>107.433333333333</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>43979.7222222222</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>6.4</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <f aca="false">D11+E10</f>
+      <c r="E11" s="0" t="n">
         <v>162.9</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -1243,32 +1106,30 @@
       <c r="O11" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <f aca="false">TIMEVALUE(P11)*(24*60)</f>
+      <c r="P11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="0" t="n">
         <v>20.8666666666667</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>43980.25</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <f aca="false">D12+E11</f>
+      <c r="E12" s="0" t="n">
         <v>171</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -1301,32 +1162,30 @@
       <c r="O12" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="3" t="n">
-        <f aca="false">TIMEVALUE(P12)*(24*60)</f>
+      <c r="P12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>27.4166666666667</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="1" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>43980.2708333333</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <f aca="false">D13+E12</f>
+      <c r="E13" s="0" t="n">
         <v>179</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -1359,32 +1218,30 @@
       <c r="O13" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="3" t="n">
-        <f aca="false">TIMEVALUE(P13)*(24*60)</f>
+      <c r="P13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>26.65</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>43981.25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>3.87</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <f aca="false">D14+E13</f>
+      <c r="E14" s="0" t="n">
         <v>182.87</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -1417,11 +1274,10 @@
       <c r="O14" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <f aca="false">TIMEVALUE(P14)*(24*60)</f>
+      <c r="P14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="0" t="n">
         <v>13.9666666666667</v>
       </c>
       <c r="R14" s="0" t="n">
@@ -1437,21 +1293,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>65</v>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>43981.2694444444</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>6.97</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <f aca="false">D15+E14</f>
+      <c r="E15" s="0" t="n">
         <v>189.84</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -1484,11 +1339,10 @@
       <c r="O15" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <f aca="false">TIMEVALUE(P15)*(24*60)</f>
+      <c r="P15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="0" t="n">
         <v>18.95</v>
       </c>
       <c r="R15" s="0" t="n">
@@ -1504,21 +1358,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>68</v>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>43981.2923611111</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>8.63</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <f aca="false">D16+E15</f>
+      <c r="E16" s="0" t="n">
         <v>198.47</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -1552,10 +1405,9 @@
         <v>83</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <f aca="false">TIMEVALUE(P16)*(24*60)</f>
+        <v>55</v>
+      </c>
+      <c r="Q16" s="0" t="n">
         <v>43.3833333333333</v>
       </c>
       <c r="R16" s="0" t="n">
@@ -1571,21 +1423,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>71</v>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>43981.3305555556</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>8.63</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <f aca="false">D17+E16</f>
+      <c r="E17" s="0" t="n">
         <v>207.1</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -1618,11 +1469,10 @@
       <c r="O17" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="3" t="n">
-        <f aca="false">TIMEVALUE(P17)*(24*60)</f>
+      <c r="P17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="0" t="n">
         <v>26.0166666666667</v>
       </c>
       <c r="R17" s="0" t="n">
@@ -1638,21 +1488,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>74</v>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>43982.35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>12.49</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <f aca="false">D18+E17</f>
+      <c r="E18" s="0" t="n">
         <v>219.59</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -1685,11 +1534,10 @@
       <c r="O18" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" s="3" t="n">
-        <f aca="false">TIMEVALUE(P18)*(24*60)</f>
+      <c r="P18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>36</v>
       </c>
       <c r="R18" s="0" t="n">
@@ -1705,47 +1553,41 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>77</v>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>43983.38125</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">19.9+20.16</f>
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>40.06</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <f aca="false">D19+E18</f>
+      <c r="E19" s="0" t="n">
         <v>259.65</v>
       </c>
       <c r="F19" s="0" t="n">
-        <f aca="false">G19-G18</f>
         <v>80</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>2512</v>
       </c>
       <c r="H19" s="0" t="n">
-        <f aca="false">I19-I18</f>
         <v>457</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>4151</v>
       </c>
       <c r="J19" s="0" t="n">
-        <f aca="false">K19-K18</f>
         <v>1611</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>10397</v>
       </c>
       <c r="L19" s="0" t="n">
-        <f aca="false">M19-M18</f>
         <v>25472</v>
       </c>
       <c r="M19" s="0" t="n">
@@ -1757,11 +1599,10 @@
       <c r="O19" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <f aca="false">TIMEVALUE(P19)*(24*60)</f>
+      <c r="P19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="0" t="n">
         <v>92.4166666666667</v>
       </c>
       <c r="R19" s="0" t="n">
@@ -1777,46 +1618,41 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>80</v>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>43984.38125</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>22.6</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <f aca="false">D20+E19</f>
+      <c r="E20" s="0" t="n">
         <v>282.25</v>
       </c>
       <c r="F20" s="0" t="n">
-        <f aca="false">G20-G19</f>
         <v>140</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>2652</v>
       </c>
       <c r="H20" s="0" t="n">
-        <f aca="false">I20-I19</f>
         <v>320</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>4471</v>
       </c>
       <c r="J20" s="0" t="n">
-        <f aca="false">K20-K19</f>
         <v>1064</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>11461</v>
       </c>
       <c r="L20" s="0" t="n">
-        <f aca="false">M20-M19</f>
         <v>17232</v>
       </c>
       <c r="M20" s="0" t="n">
@@ -1828,11 +1664,10 @@
       <c r="O20" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="3" t="n">
-        <f aca="false">TIMEVALUE(P20)*(24*60)</f>
+      <c r="P20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="0" t="n">
         <v>61.1166666666667</v>
       </c>
       <c r="R20" s="0" t="n">
@@ -1848,20 +1683,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>83</v>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>43988.25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>26.35</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="0" t="n">
         <v>308</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1871,21 +1706,18 @@
         <v>2782</v>
       </c>
       <c r="H21" s="0" t="n">
-        <f aca="false">I21-I20</f>
         <v>334</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>4805</v>
       </c>
       <c r="J21" s="0" t="n">
-        <f aca="false">K21-K20</f>
         <v>1694</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>13155</v>
       </c>
       <c r="L21" s="0" t="n">
-        <f aca="false">M21-M20</f>
         <v>1370</v>
       </c>
       <c r="M21" s="0" t="n">
@@ -1898,10 +1730,9 @@
         <v>83</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <f aca="false">TIMEVALUE(P21)*(24*60)</f>
+        <v>65</v>
+      </c>
+      <c r="Q21" s="0" t="n">
         <v>61.1666666666667</v>
       </c>
       <c r="R21" s="0" t="n">
@@ -1920,46 +1751,41 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>86</v>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>43990.25</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0" t="n">
-        <f aca="false">E22-E21</f>
         <v>28</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="0" t="n">
         <v>336</v>
       </c>
       <c r="F22" s="0" t="n">
-        <f aca="false">G22-G21</f>
         <v>215</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>2997</v>
       </c>
       <c r="H22" s="0" t="n">
-        <f aca="false">I22-I21</f>
         <v>406</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>5211</v>
       </c>
       <c r="J22" s="0" t="n">
-        <f aca="false">K22-K21</f>
         <v>1263</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>14418</v>
       </c>
       <c r="L22" s="0" t="n">
-        <f aca="false">M22-M21</f>
         <v>21414</v>
       </c>
       <c r="M22" s="0" t="n">
@@ -1972,10 +1798,9 @@
         <v>83</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="3" t="n">
-        <f aca="false">TIMEVALUE(P22)*(24*60)</f>
+        <v>67</v>
+      </c>
+      <c r="Q22" s="0" t="n">
         <v>70.8166666666667</v>
       </c>
       <c r="R22" s="0" t="n">
@@ -1994,45 +1819,41 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>89</v>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>43992.25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>26.8</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="0" t="n">
         <v>363</v>
       </c>
       <c r="F23" s="0" t="n">
-        <f aca="false">G23-G22</f>
         <v>417</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>3414</v>
       </c>
       <c r="H23" s="0" t="n">
-        <f aca="false">I23-I22</f>
         <v>448</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>5659</v>
       </c>
       <c r="J23" s="0" t="n">
-        <f aca="false">K23-K22</f>
         <v>1370</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>15788</v>
       </c>
       <c r="L23" s="0" t="n">
-        <f aca="false">M23-M22</f>
         <v>24947</v>
       </c>
       <c r="M23" s="0" t="n">
@@ -2045,10 +1866,9 @@
         <v>83</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <f aca="false">TIMEVALUE(P23)*(24*60)</f>
+        <v>69</v>
+      </c>
+      <c r="Q23" s="0" t="n">
         <v>80.2333333333333</v>
       </c>
       <c r="R23" s="0" t="n">
@@ -2067,45 +1887,41 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>92</v>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>43994.25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>25.11</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="0" t="n">
         <v>388</v>
       </c>
       <c r="F24" s="0" t="n">
-        <f aca="false">G24-G23</f>
         <v>252</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>3666</v>
       </c>
       <c r="H24" s="0" t="n">
-        <f aca="false">I24-I23</f>
         <v>406</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>6065</v>
       </c>
       <c r="J24" s="0" t="n">
-        <f aca="false">K24-K23</f>
         <v>1239</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>17027</v>
       </c>
       <c r="L24" s="0" t="n">
-        <f aca="false">M24-M23</f>
         <v>121691</v>
       </c>
       <c r="M24" s="0" t="n">
@@ -2118,10 +1934,9 @@
         <v>83</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <f aca="false">TIMEVALUE(P24)*(24*60)</f>
+        <v>71</v>
+      </c>
+      <c r="Q24" s="0" t="n">
         <v>72.7333333333333</v>
       </c>
       <c r="R24" s="0" t="n">
@@ -2140,45 +1955,41 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>95</v>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>43995.2083333333</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>10.97</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="0" t="n">
         <v>399</v>
       </c>
       <c r="F25" s="0" t="n">
-        <f aca="false">G25-G24</f>
         <v>85</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>3751</v>
       </c>
       <c r="H25" s="0" t="n">
-        <f aca="false">I25-I24</f>
         <v>128</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>6193</v>
       </c>
       <c r="J25" s="0" t="n">
-        <f aca="false">K25-K24</f>
         <v>508</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>17535</v>
       </c>
       <c r="L25" s="0" t="n">
-        <f aca="false">M25-M24</f>
         <v>8428</v>
       </c>
       <c r="M25" s="0" t="n">
@@ -2191,10 +2002,9 @@
         <v>83</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q25" s="3" t="n">
-        <f aca="false">TIMEVALUE(P25)*(24*60)</f>
+        <v>73</v>
+      </c>
+      <c r="Q25" s="0" t="n">
         <v>30.8</v>
       </c>
       <c r="R25" s="0" t="n">
@@ -2213,45 +2023,41 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>98</v>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>43997.2770833333</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>26.06</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="0" t="n">
         <v>425</v>
       </c>
       <c r="F26" s="0" t="n">
-        <f aca="false">G26-G25</f>
         <v>322</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>4073</v>
       </c>
       <c r="H26" s="0" t="n">
-        <f aca="false">I26-I25</f>
         <v>455</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>6648</v>
       </c>
       <c r="J26" s="0" t="n">
-        <f aca="false">K26-K25</f>
         <v>1465</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>19000</v>
       </c>
       <c r="L26" s="0" t="n">
-        <f aca="false">M26-M25</f>
         <v>24218</v>
       </c>
       <c r="M26" s="0" t="n">
@@ -2264,10 +2070,9 @@
         <v>83</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3" t="n">
-        <f aca="false">TIMEVALUE(P26)*(24*60)</f>
+        <v>75</v>
+      </c>
+      <c r="Q26" s="0" t="n">
         <v>81.4666666666667</v>
       </c>
       <c r="R26" s="0" t="n">
@@ -2286,45 +2091,41 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>101</v>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>43999.2354166667</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D27" s="0" t="n">
         <v>30.39</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="0" t="n">
         <v>455</v>
       </c>
       <c r="F27" s="0" t="n">
-        <f aca="false">G27-G26</f>
         <v>275</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>4348</v>
       </c>
       <c r="H27" s="0" t="n">
-        <f aca="false">I27-I26</f>
         <v>540</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>7188</v>
       </c>
       <c r="J27" s="0" t="n">
-        <f aca="false">K27-K26</f>
         <v>1612</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>20612</v>
       </c>
       <c r="L27" s="0" t="n">
-        <f aca="false">M27-M26</f>
         <v>24197</v>
       </c>
       <c r="M27" s="0" t="n">
@@ -2337,10 +2138,9 @@
         <v>83</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q27" s="3" t="n">
-        <f aca="false">TIMEVALUE(P27)*(24*60)</f>
+        <v>77</v>
+      </c>
+      <c r="Q27" s="0" t="n">
         <v>94.35</v>
       </c>
       <c r="R27" s="0" t="n">
@@ -2359,45 +2159,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>104</v>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>44001.3638888889</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D28" s="0" t="n">
         <v>26.27</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="0" t="n">
         <v>482</v>
       </c>
       <c r="F28" s="0" t="n">
-        <f aca="false">G28-G27</f>
         <v>408</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>4756</v>
       </c>
       <c r="H28" s="0" t="n">
-        <f aca="false">I28-I27</f>
         <v>446</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>7634</v>
       </c>
       <c r="J28" s="0" t="n">
-        <f aca="false">K28-K27</f>
         <v>1364</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>21976</v>
       </c>
       <c r="L28" s="0" t="n">
-        <f aca="false">M28-M27</f>
         <v>24267</v>
       </c>
       <c r="M28" s="0" t="n">
@@ -2410,10 +2206,9 @@
         <v>83</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q28" s="3" t="n">
-        <f aca="false">TIMEVALUE(P28)*(24*60)</f>
+        <v>79</v>
+      </c>
+      <c r="Q28" s="0" t="n">
         <v>81.8333333333333</v>
       </c>
       <c r="R28" s="0" t="n">
@@ -2432,28 +2227,26 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>107</v>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>44001.7319444444</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>4756</v>
       </c>
       <c r="H29" s="0" t="n">
-        <f aca="false">I29-I28</f>
         <v>0</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>7634</v>
       </c>
       <c r="J29" s="0" t="n">
-        <f aca="false">K29-K28</f>
         <v>0</v>
       </c>
       <c r="K29" s="0" t="n">
@@ -2463,53 +2256,47 @@
         <v>-191700</v>
       </c>
       <c r="M29" s="0" t="n">
-        <f aca="false">M28+L29</f>
         <v>301732</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>109</v>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>44002.3152777778</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" s="0" t="n">
         <v>52.9</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="0" t="n">
         <v>482</v>
       </c>
       <c r="F30" s="0" t="n">
-        <f aca="false">G30-G29</f>
         <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>4756</v>
       </c>
       <c r="H30" s="0" t="n">
-        <f aca="false">I30-I29</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>7634</v>
       </c>
       <c r="J30" s="0" t="n">
-        <f aca="false">K30-K29</f>
         <v>1493</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>23469</v>
       </c>
       <c r="L30" s="0" t="n">
-        <f aca="false">M30-M29</f>
         <v>0</v>
       </c>
       <c r="M30" s="0" t="n">
-        <f aca="false">M29</f>
         <v>301732</v>
       </c>
       <c r="N30" s="0" t="n">
@@ -2519,10 +2306,9 @@
         <v>83</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q30" s="3" t="n">
-        <f aca="false">TIMEVALUE(P30)*(24*60)</f>
+        <v>82</v>
+      </c>
+      <c r="Q30" s="0" t="n">
         <v>130.316666666667</v>
       </c>
       <c r="R30" s="0" t="n">
@@ -2541,20 +2327,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>112</v>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>44004.3152777778</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D31" s="0" t="n">
         <v>35.56</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="0" t="n">
         <v>517</v>
       </c>
       <c r="F31" s="0" t="n">
@@ -2564,21 +2350,18 @@
         <v>5096</v>
       </c>
       <c r="H31" s="0" t="n">
-        <f aca="false">I31-I30</f>
         <v>534</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>8168</v>
       </c>
       <c r="J31" s="0" t="n">
-        <f aca="false">K31-K30</f>
         <v>1676</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>25145</v>
       </c>
       <c r="L31" s="0" t="n">
-        <f aca="false">M31-M30</f>
         <v>27438</v>
       </c>
       <c r="M31" s="0" t="n">
@@ -2591,10 +2374,9 @@
         <v>83</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q31" s="3" t="n">
-        <f aca="false">TIMEVALUE(P31)*(24*60)</f>
+        <v>84</v>
+      </c>
+      <c r="Q31" s="0" t="n">
         <v>93.9166666666667</v>
       </c>
       <c r="R31" s="0" t="n">
@@ -2613,20 +2395,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>115</v>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>44006.2986111111</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D32" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="0" t="n">
         <v>549</v>
       </c>
       <c r="F32" s="0" t="n">
@@ -2636,21 +2418,18 @@
         <v>5642</v>
       </c>
       <c r="H32" s="0" t="n">
-        <f aca="false">I32-I31</f>
         <v>553</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>8721</v>
       </c>
       <c r="J32" s="0" t="n">
-        <f aca="false">K32-K31</f>
         <v>1680</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>26825</v>
       </c>
       <c r="L32" s="0" t="n">
-        <f aca="false">M32-M31</f>
         <v>29861</v>
       </c>
       <c r="M32" s="0" t="n">
@@ -2663,10 +2442,9 @@
         <v>82.9</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q32" s="3" t="n">
-        <f aca="false">TIMEVALUE(P32)*(24*60)</f>
+        <v>86</v>
+      </c>
+      <c r="Q32" s="0" t="n">
         <v>100.25</v>
       </c>
       <c r="R32" s="0" t="n">
@@ -2685,45 +2463,41 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>118</v>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>44008.2361111111</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D33" s="0" t="n">
         <v>37.94</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="0" t="n">
         <v>587</v>
       </c>
       <c r="F33" s="0" t="n">
-        <f aca="false">G33-G32</f>
         <v>302</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>5944</v>
       </c>
       <c r="H33" s="0" t="n">
-        <f aca="false">I33-I32</f>
         <v>550</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>9271</v>
       </c>
       <c r="J33" s="0" t="n">
-        <f aca="false">K33-K32</f>
         <v>1726</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>28551</v>
       </c>
       <c r="L33" s="0" t="n">
-        <f aca="false">M33-M32</f>
         <v>28717</v>
       </c>
       <c r="M33" s="0" t="n">
@@ -2736,10 +2510,9 @@
         <v>83.2</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q33" s="3" t="n">
-        <f aca="false">TIMEVALUE(P33)*(24*60)</f>
+        <v>88</v>
+      </c>
+      <c r="Q33" s="0" t="n">
         <v>94.5666666666667</v>
       </c>
       <c r="R33" s="0" t="n">
@@ -2758,45 +2531,41 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>121</v>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>44009.2770833333</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D34" s="0" t="n">
         <v>54.95</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="0" t="n">
         <v>642</v>
       </c>
       <c r="F34" s="0" t="n">
-        <f aca="false">G34-G33</f>
         <v>273</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>6217</v>
       </c>
       <c r="H34" s="0" t="n">
-        <f aca="false">I34-I33</f>
         <v>721</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>9992</v>
       </c>
       <c r="J34" s="0" t="n">
-        <f aca="false">K34-K33</f>
         <v>2396</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>30947</v>
       </c>
       <c r="L34" s="0" t="n">
-        <f aca="false">M34-M33</f>
         <v>38537</v>
       </c>
       <c r="M34" s="0" t="n">
@@ -2809,10 +2578,9 @@
         <v>83</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q34" s="3" t="n">
-        <f aca="false">TIMEVALUE(P34)*(24*60)</f>
+        <v>90</v>
+      </c>
+      <c r="Q34" s="0" t="n">
         <v>129.916666666667</v>
       </c>
       <c r="R34" s="0" t="n">
@@ -2831,38 +2599,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>124</v>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>44009.2770833333</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="0" t="n">
         <v>642</v>
       </c>
       <c r="F35" s="0" t="n">
-        <f aca="false">G35-G34</f>
         <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>6217</v>
       </c>
       <c r="H35" s="0" t="n">
-        <f aca="false">I35-I34</f>
         <v>0</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>9992</v>
       </c>
       <c r="J35" s="0" t="n">
-        <f aca="false">K35-K34</f>
         <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
@@ -2872,7 +2637,6 @@
         <v>-408300</v>
       </c>
       <c r="M35" s="0" t="n">
-        <f aca="false">M34+L35</f>
         <v>17985</v>
       </c>
       <c r="N35" s="0" t="n">
@@ -2882,9 +2646,9 @@
         <v>83</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q35" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R35" s="0" t="n">
@@ -2903,13 +2667,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>